--- a/data/CS1_3/Shared ESS/CS1_ESS.xlsx
+++ b/data/CS1_3/Shared ESS/CS1_ESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F78CCCA-127F-46D2-A8A7-8993DFCB0DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FF8A24-46E4-4392-9E89-6C71D92D9C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" firstSheet="18" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -163,10 +163,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,44 +430,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D1" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E1" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F1" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G1" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2030</v>
       </c>
@@ -479,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2040</v>
       </c>
@@ -487,7 +483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2050</v>
       </c>
@@ -509,9 +505,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -588,7 +584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -689,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -790,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -891,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -992,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1107,9 +1103,9 @@
       <selection activeCell="C2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1186,7 +1182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1287,7 +1283,7 @@
         <v>0.28380783565101309</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1388,7 +1384,7 @@
         <v>0.29799822743356374</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1489,7 +1485,7 @@
         <v>0.26961744386846243</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1590,7 +1586,7 @@
         <v>0.3121886192161144</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1705,9 +1701,9 @@
       <selection activeCell="C2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1784,7 +1780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1885,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1986,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2087,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2188,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2303,9 +2299,9 @@
       <selection activeCell="C2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2382,7 +2378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2483,7 +2479,7 @@
         <v>0.26278503301019729</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2584,7 +2580,7 @@
         <v>0.27592428466070718</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2685,7 +2681,7 @@
         <v>0.2496457813596874</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2786,7 +2782,7 @@
         <v>0.28906353631121706</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2901,9 +2897,9 @@
       <selection activeCell="C2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2980,7 +2976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3081,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3182,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3283,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3384,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3499,9 +3495,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3578,7 +3574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3679,7 +3675,7 @@
         <v>0.29832180584041651</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3780,7 +3776,7 @@
         <v>0.31323789613243735</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3881,7 +3877,7 @@
         <v>0.28340571554839566</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3982,7 +3978,7 @@
         <v>0.3281539864244582</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4097,9 +4093,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4176,7 +4172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4277,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4378,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4479,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4580,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4695,9 +4691,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4774,7 +4770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4875,7 +4871,7 @@
         <v>0.26278503301019729</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4976,7 +4972,7 @@
         <v>0.27592428466070718</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5077,7 +5073,7 @@
         <v>0.2496457813596874</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5178,7 +5174,7 @@
         <v>0.28906353631121706</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5293,9 +5289,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5372,7 +5368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5473,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5574,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5675,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5776,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5891,9 +5887,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5970,7 +5966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6071,7 +6067,7 @@
         <v>0.31357802238174209</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6172,7 +6168,7 @@
         <v>0.32925692350082919</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6273,7 +6269,7 @@
         <v>0.297899121262655</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6374,7 +6370,7 @@
         <v>0.34493582461991634</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6489,12 +6485,12 @@
       <selection activeCell="B2" sqref="B2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -6508,7 +6504,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6522,7 +6518,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6549,9 +6545,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6628,7 +6624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6729,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6830,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6931,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7032,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7147,9 +7143,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7226,7 +7222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7327,7 +7323,7 @@
         <v>0.27622389429668193</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7428,7 +7424,7 @@
         <v>0.29003508901151603</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7529,7 +7525,7 @@
         <v>0.26241269958184782</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7630,7 +7626,7 @@
         <v>0.30384628372635014</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7741,13 +7737,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23E5D4B-55CD-478D-A9A1-B7E27B5100C7}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7824,7 +7820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7925,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8026,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8127,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8228,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8343,12 +8339,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -8365,7 +8361,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -8382,7 +8378,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8399,7 +8395,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8429,13 +8425,13 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -8449,7 +8445,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -8470,7 +8466,7 @@
         <v>29800</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8504,12 +8500,12 @@
       <selection activeCell="B2" sqref="B2:Y3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -8586,7 +8582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -8663,7 +8659,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8740,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -8779,12 +8775,12 @@
       <selection activeCell="B2" sqref="B2:Y3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -8861,7 +8857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -8938,7 +8934,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9015,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9054,9 +9050,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -9133,7 +9129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9234,7 +9230,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9335,7 +9331,7 @@
         <v>0.28350000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9436,7 +9432,7 @@
         <v>0.25650000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9537,7 +9533,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9652,9 +9648,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -9731,7 +9727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9832,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9933,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10034,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10135,7 +10131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10250,9 +10246,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -10329,7 +10325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10430,7 +10426,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10531,7 +10527,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10632,7 +10628,7 @@
         <v>0.23749999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10733,7 +10729,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
